--- a/97 - Listes/Liste.xlsx
+++ b/97 - Listes/Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carre92\97 - Listes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA1056-B878-454C-B705-79B05E62C9E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8910B66-B280-44DB-883E-1AF2362A15A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>RAF</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Monter carte STM32 (spare)</t>
+  </si>
+  <si>
+    <t>Souder les DeanT sur les nouveaux accus</t>
+  </si>
+  <si>
+    <t>Scotch noir electricien</t>
+  </si>
+  <si>
+    <t>Cyano</t>
   </si>
 </sst>
 </file>
@@ -558,7 +567,7 @@
   <dimension ref="B4:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +757,9 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="E19" s="1" t="s">
         <v>30</v>
@@ -800,7 +811,9 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="H24" s="1"/>
       <c r="I24" s="2"/>
@@ -808,7 +821,9 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
       <c r="I25" s="2"/>

--- a/97 - Listes/Liste.xlsx
+++ b/97 - Listes/Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carre92\97 - Listes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8910B66-B280-44DB-883E-1AF2362A15A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F75DF-C346-4AED-966A-0523D8E4D983}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="43">
   <si>
     <t>RAF</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Cyano</t>
+  </si>
+  <si>
+    <t>Multimètre</t>
+  </si>
+  <si>
+    <t>Reçu</t>
+  </si>
+  <si>
+    <t>FAIT</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -272,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -284,6 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +583,7 @@
   <dimension ref="B4:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,8 +620,8 @@
       <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
+      <c r="I6" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -628,7 +644,9 @@
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
@@ -831,7 +849,9 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
       <c r="I26" s="2"/>

--- a/97 - Listes/Liste.xlsx
+++ b/97 - Listes/Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carre92\97 - Listes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F75DF-C346-4AED-966A-0523D8E4D983}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A6DB9-C8B6-4E6B-92E0-51BFA1B4D586}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>RAF</t>
   </si>
@@ -583,7 +583,7 @@
   <dimension ref="B4:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,9 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
@@ -628,7 +630,9 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
@@ -766,7 +770,9 @@
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>29</v>
       </c>

--- a/97 - Listes/Liste.xlsx
+++ b/97 - Listes/Liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carre92\97 - Listes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A6DB9-C8B6-4E6B-92E0-51BFA1B4D586}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC42136-B0A9-4DB8-A841-95C46651C281}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>RAF</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>FAIT</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>Outils Tamiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clés, Pinces, Clés à pipe, </t>
+  </si>
+  <si>
+    <t>Double face</t>
   </si>
 </sst>
 </file>
@@ -177,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +220,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -287,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -300,6 +318,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +602,7 @@
   <dimension ref="B4:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +681,9 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
@@ -674,7 +695,9 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
@@ -686,7 +709,9 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
@@ -698,7 +723,9 @@
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
@@ -710,7 +737,9 @@
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
@@ -734,7 +763,9 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>26</v>
       </c>
@@ -865,7 +896,9 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
       <c r="I27" s="2"/>
@@ -873,7 +906,9 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
       <c r="I28" s="2"/>
@@ -881,7 +916,9 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
       <c r="I29" s="2"/>

--- a/97 - Listes/Liste.xlsx
+++ b/97 - Listes/Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carre92\97 - Listes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC42136-B0A9-4DB8-A841-95C46651C281}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398A349B-510A-430E-9E55-0A15AD8349E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>RAF</t>
   </si>
@@ -96,9 +96,6 @@
     <t>BEC Linéaire</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>Caisse àoutils</t>
   </si>
   <si>
@@ -166,6 +163,12 @@
   </si>
   <si>
     <t>Double face</t>
+  </si>
+  <si>
+    <t>Velcro et colliers</t>
+  </si>
+  <si>
+    <t>Adaptateur secteur  pour STM32</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <dimension ref="B4:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -642,7 +645,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -650,17 +653,17 @@
         <v>16</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
+      <c r="I7" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -668,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -682,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -696,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -710,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -723,8 +726,8 @@
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>43</v>
+      <c r="C12" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -738,10 +741,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -751,9 +754,11 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -764,10 +769,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -775,11 +780,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -791,7 +796,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -802,10 +807,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -813,11 +818,13 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -827,7 +834,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -837,7 +844,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -847,7 +854,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -857,7 +864,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -867,7 +874,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="1"/>
@@ -877,7 +884,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -887,7 +894,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -897,7 +904,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -907,7 +914,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -917,7 +924,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -926,7 +933,9 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="H30" s="1"/>
       <c r="I30" s="2"/>
@@ -934,7 +943,9 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="H31" s="1"/>
       <c r="I31" s="2"/>
